--- a/firmware/PinAssignments.xlsx
+++ b/firmware/PinAssignments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\ESP32\Projects\TVLift\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\ESP32\Projects\TVLift\firmware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E9AEF3-4524-4374-BB54-92E05781BB1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DFD8E2-3A8E-448C-8AA2-4FF79B6493B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B5A3BED3-B86A-457C-90DE-18F9FEEAD38D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Lift ENA</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Lift Dir / I2C SDA</t>
+  </si>
+  <si>
+    <t>Touch Input</t>
   </si>
 </sst>
 </file>
@@ -505,7 +508,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,7 +572,11 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="11" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="N11" s="4"/>
